--- a/Label Print/order.xlsx
+++ b/Label Print/order.xlsx
@@ -1,40 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanvi Patwa\Dropbox\My PC (LAPTOP-MTESI2JA)\Downloads\Bulk-Label-Print-main\Bulk-Label-Print-main\Label Print\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NILESH\Desktop\Label Print\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40A1BCB-EA50-4359-8A51-CE4E3461180F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029C0A0D-59D3-4D31-AB8A-D6133FCD0C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB9CB7FC-368D-44FC-967D-5AC910B05F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="80000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>0000LK0685J781</t>
-  </si>
-  <si>
-    <t>0000LK0725J681</t>
-  </si>
-  <si>
-    <t>0023018H01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Quantity</t>
   </si>
@@ -42,17 +40,143 @@
     <t>Code1</t>
   </si>
   <si>
-    <t>0115-SHM</t>
-  </si>
-  <si>
-    <t>0117Z</t>
+    <t>3310BABS201S</t>
+  </si>
+  <si>
+    <t>3340BAAL001S</t>
+  </si>
+  <si>
+    <t>3345BAAY001S</t>
+  </si>
+  <si>
+    <t>33701AAY001S</t>
+  </si>
+  <si>
+    <t>53205AAW000US</t>
+  </si>
+  <si>
+    <t>53205AAW000WS</t>
+  </si>
+  <si>
+    <t>53205ABS000TS</t>
+  </si>
+  <si>
+    <t>53205ABS000US</t>
+  </si>
+  <si>
+    <t>53205ABS200VS</t>
+  </si>
+  <si>
+    <t>53205KZN900ZES</t>
+  </si>
+  <si>
+    <t>53207AAL000XS</t>
+  </si>
+  <si>
+    <t>53250KZN900S</t>
+  </si>
+  <si>
+    <t>61105AAL000VS</t>
+  </si>
+  <si>
+    <t>61140AAW000S</t>
+  </si>
+  <si>
+    <t>64100AAC200S</t>
+  </si>
+  <si>
+    <t>64301AAW000RS</t>
+  </si>
+  <si>
+    <t>64303AAY000S</t>
+  </si>
+  <si>
+    <t>64305AAL000ZS</t>
+  </si>
+  <si>
+    <t>64305KZN900ZCS</t>
+  </si>
+  <si>
+    <t>64309AAW000S</t>
+  </si>
+  <si>
+    <t>64310AAL000S</t>
+  </si>
+  <si>
+    <t>64310AAL500S</t>
+  </si>
+  <si>
+    <t>64310AAW000S</t>
+  </si>
+  <si>
+    <t>64310KTP900S</t>
+  </si>
+  <si>
+    <t>64320AAL000XS</t>
+  </si>
+  <si>
+    <t>64320KZN900ZAS</t>
+  </si>
+  <si>
+    <t>64330AAW000TS</t>
+  </si>
+  <si>
+    <t>64330KZN900ZAS</t>
+  </si>
+  <si>
+    <t>64400ABL000RS</t>
+  </si>
+  <si>
+    <t>64401AAL200XS</t>
+  </si>
+  <si>
+    <t>80100KVH850S</t>
+  </si>
+  <si>
+    <t>80151KTP900S</t>
+  </si>
+  <si>
+    <t>81131AAL000S</t>
+  </si>
+  <si>
+    <t>81131AAY000S</t>
+  </si>
+  <si>
+    <t>81131KTP900S</t>
+  </si>
+  <si>
+    <t>81131KZN900S</t>
+  </si>
+  <si>
+    <t>81132KTP900S</t>
+  </si>
+  <si>
+    <t>81250AAL000S</t>
+  </si>
+  <si>
+    <t>83300KZN901ZAS</t>
+  </si>
+  <si>
+    <t>83402AAC220S</t>
+  </si>
+  <si>
+    <t>88110AALD01S</t>
+  </si>
+  <si>
+    <t>88110AAY010S</t>
+  </si>
+  <si>
+    <t>88110KZN900ZES</t>
+  </si>
+  <si>
+    <t>64305AAL500SS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,11 +185,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="9.85"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9.85"/>
+      <color indexed="8"/>
+      <name val="Comic Sans MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,15 +217,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{F24DEBF5-4D9D-4E5B-883F-B4C774572D0C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70E9A93-DDDB-45CB-B1C6-5CC1952C8236}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,52 +555,364 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
